--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_9_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_9_10.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20176.18038139102</v>
+        <v>-20176.18038139101</v>
       </c>
     </row>
     <row r="7">
@@ -9404,16 +9404,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L20" t="n">
-        <v>86.82148686318186</v>
+        <v>86.82148686318189</v>
       </c>
       <c r="M20" t="n">
-        <v>64.61630209323863</v>
+        <v>64.61630209323866</v>
       </c>
       <c r="N20" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O20" t="n">
-        <v>71.0718992657024</v>
+        <v>71.07189926570237</v>
       </c>
       <c r="P20" t="n">
         <v>95.50771753390021</v>
@@ -9498,7 +9498,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q21" t="n">
-        <v>75.51914927829571</v>
+        <v>75.5191492782957</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9565,7 +9565,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M22" t="n">
-        <v>72.56001021962938</v>
+        <v>72.56001021962936</v>
       </c>
       <c r="N22" t="n">
         <v>62.89780050171086</v>
@@ -10826,16 +10826,16 @@
         <v>100.0299464227919</v>
       </c>
       <c r="L38" t="n">
-        <v>86.82148686318189</v>
+        <v>86.82148686318186</v>
       </c>
       <c r="M38" t="n">
-        <v>64.61630209323866</v>
+        <v>64.61630209323863</v>
       </c>
       <c r="N38" t="n">
         <v>61.00144891149961</v>
       </c>
       <c r="O38" t="n">
-        <v>71.07189926570237</v>
+        <v>71.0718992657024</v>
       </c>
       <c r="P38" t="n">
         <v>95.50771753390021</v>
@@ -10920,7 +10920,7 @@
         <v>37.54182911310821</v>
       </c>
       <c r="Q39" t="n">
-        <v>75.5191492782957</v>
+        <v>75.51914927829571</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10987,7 +10987,7 @@
         <v>71.94053294496764</v>
       </c>
       <c r="M40" t="n">
-        <v>72.56001021962936</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N40" t="n">
         <v>62.89780050171086</v>
@@ -26320,7 +26320,7 @@
         <v>53753.70276572321</v>
       </c>
       <c r="E2" t="n">
-        <v>58333.3509259106</v>
+        <v>58333.35092591059</v>
       </c>
       <c r="F2" t="n">
         <v>58333.3509259106</v>
@@ -26329,31 +26329,31 @@
         <v>58333.3509259106</v>
       </c>
       <c r="H2" t="n">
-        <v>58333.35092591059</v>
+        <v>58333.3509259106</v>
       </c>
       <c r="I2" t="n">
-        <v>58333.35092591061</v>
+        <v>58333.3509259106</v>
       </c>
       <c r="J2" t="n">
         <v>58333.3509259106</v>
       </c>
       <c r="K2" t="n">
-        <v>58333.35092591061</v>
+        <v>58333.3509259106</v>
       </c>
       <c r="L2" t="n">
-        <v>58333.35092591061</v>
+        <v>58333.3509259106</v>
       </c>
       <c r="M2" t="n">
         <v>58333.3509259106</v>
       </c>
       <c r="N2" t="n">
-        <v>58333.35092591059</v>
+        <v>58333.3509259106</v>
       </c>
       <c r="O2" t="n">
         <v>58333.3509259106</v>
       </c>
       <c r="P2" t="n">
-        <v>58333.35092591061</v>
+        <v>58333.3509259106</v>
       </c>
     </row>
     <row r="3">
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25688.56416369066</v>
+        <v>-25688.56416369065</v>
       </c>
       <c r="C6" t="n">
-        <v>-25688.56416369066</v>
+        <v>-25688.56416369065</v>
       </c>
       <c r="D6" t="n">
-        <v>-25688.56416369066</v>
+        <v>-25688.56416369065</v>
       </c>
       <c r="E6" t="n">
-        <v>-154560.4819654082</v>
+        <v>-154560.4819654083</v>
       </c>
       <c r="F6" t="n">
         <v>34062.50500512988</v>
       </c>
       <c r="G6" t="n">
-        <v>34062.50500512987</v>
+        <v>34062.50500512988</v>
       </c>
       <c r="H6" t="n">
-        <v>34062.50500512987</v>
+        <v>34062.50500512988</v>
       </c>
       <c r="I6" t="n">
-        <v>34062.50500512989</v>
+        <v>34062.50500512988</v>
       </c>
       <c r="J6" t="n">
         <v>34062.50500512988</v>
@@ -26552,13 +26552,13 @@
         <v>34062.50500512988</v>
       </c>
       <c r="M6" t="n">
-        <v>34062.50500512987</v>
+        <v>34062.50500512988</v>
       </c>
       <c r="N6" t="n">
-        <v>34062.50500512987</v>
+        <v>34062.50500512988</v>
       </c>
       <c r="O6" t="n">
-        <v>34062.50500512987</v>
+        <v>34062.50500512988</v>
       </c>
       <c r="P6" t="n">
         <v>34062.50500512988</v>
@@ -32476,7 +32476,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L20" t="n">
-        <v>148.9449281068054</v>
+        <v>148.9449281068053</v>
       </c>
       <c r="M20" t="n">
         <v>165.7299311340341</v>
@@ -32485,7 +32485,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O20" t="n">
-        <v>159.0263121559843</v>
+        <v>159.0263121559844</v>
       </c>
       <c r="P20" t="n">
         <v>135.7252782213693</v>
@@ -32500,7 +32500,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T20" t="n">
-        <v>4.131656751342871</v>
+        <v>4.131656751342872</v>
       </c>
       <c r="U20" t="n">
         <v>0.07550714794001816</v>
@@ -32570,7 +32570,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q21" t="n">
-        <v>64.4626248077258</v>
+        <v>64.46262480772582</v>
       </c>
       <c r="R21" t="n">
         <v>31.35420961992052</v>
@@ -32619,7 +32619,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.423373839243596</v>
+        <v>0.4233738392435961</v>
       </c>
       <c r="H22" t="n">
         <v>3.764178316183975</v>
@@ -32637,7 +32637,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M22" t="n">
-        <v>66.36577372797568</v>
+        <v>66.36577372797569</v>
       </c>
       <c r="N22" t="n">
         <v>64.78774396352233</v>
@@ -32649,13 +32649,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q22" t="n">
-        <v>35.45178575702513</v>
+        <v>35.45178575702512</v>
       </c>
       <c r="R22" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S22" t="n">
-        <v>7.378251362090667</v>
+        <v>7.378251362090666</v>
       </c>
       <c r="T22" t="n">
         <v>1.808960949495364</v>
@@ -33898,7 +33898,7 @@
         <v>120.0599046221887</v>
       </c>
       <c r="L38" t="n">
-        <v>148.9449281068053</v>
+        <v>148.9449281068054</v>
       </c>
       <c r="M38" t="n">
         <v>165.7299311340341</v>
@@ -33907,7 +33907,7 @@
         <v>168.4116146850913</v>
       </c>
       <c r="O38" t="n">
-        <v>159.0263121559844</v>
+        <v>159.0263121559843</v>
       </c>
       <c r="P38" t="n">
         <v>135.7252782213693</v>
@@ -33922,7 +33922,7 @@
         <v>21.50773917103957</v>
       </c>
       <c r="T38" t="n">
-        <v>4.131656751342872</v>
+        <v>4.131656751342871</v>
       </c>
       <c r="U38" t="n">
         <v>0.07550714794001816</v>
@@ -33992,7 +33992,7 @@
         <v>96.43257830122204</v>
       </c>
       <c r="Q39" t="n">
-        <v>64.46262480772582</v>
+        <v>64.4626248077258</v>
       </c>
       <c r="R39" t="n">
         <v>31.35420961992052</v>
@@ -34041,7 +34041,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.423373839243596</v>
       </c>
       <c r="H40" t="n">
         <v>3.764178316183975</v>
@@ -34059,7 +34059,7 @@
         <v>62.94414333627064</v>
       </c>
       <c r="M40" t="n">
-        <v>66.36577372797569</v>
+        <v>66.36577372797568</v>
       </c>
       <c r="N40" t="n">
         <v>64.78774396352233</v>
@@ -34071,13 +34071,13 @@
         <v>51.20514142997091</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.45178575702512</v>
+        <v>35.45178575702513</v>
       </c>
       <c r="R40" t="n">
         <v>19.03642735362569</v>
       </c>
       <c r="S40" t="n">
-        <v>7.378251362090666</v>
+        <v>7.378251362090667</v>
       </c>
       <c r="T40" t="n">
         <v>1.808960949495364</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_9_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_9_10.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20176.18038139101</v>
+        <v>-32514.98895975924</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9167573.323130395</v>
+        <v>9572936.676005716</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22176453.17582963</v>
+        <v>22123460.63075672</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4282902.346533054</v>
+        <v>4279513.117579895</v>
       </c>
     </row>
     <row r="11">
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>100.9387195582597</v>
+        <v>92.06191329280011</v>
       </c>
       <c r="K11" t="n">
-        <v>100.0299464227919</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L11" t="n">
-        <v>86.82148686318189</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M11" t="n">
-        <v>64.61630209323866</v>
+        <v>46.25150133729363</v>
       </c>
       <c r="N11" t="n">
-        <v>61.00144891149961</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O11" t="n">
-        <v>71.07189926570237</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P11" t="n">
-        <v>95.50771753390021</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q11" t="n">
-        <v>120.3816583481039</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913167</v>
       </c>
       <c r="K12" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L12" t="n">
-        <v>28.90545725697471</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M12" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>22.44423757443683</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P12" t="n">
-        <v>37.54182911310821</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q12" t="n">
-        <v>75.5191492782957</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8848,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>79.82491575659759</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L13" t="n">
-        <v>71.94053294496764</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M13" t="n">
-        <v>72.56001021962936</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N13" t="n">
-        <v>62.89780050171086</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O13" t="n">
-        <v>78.61457070130248</v>
+        <v>71.98338581476828</v>
       </c>
       <c r="P13" t="n">
-        <v>86.52286261917671</v>
+        <v>80.84873837615825</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>100.9387195582597</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K14" t="n">
-        <v>100.0299464227919</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L14" t="n">
-        <v>86.82148686318189</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M14" t="n">
-        <v>64.61630209323866</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N14" t="n">
-        <v>61.00144891149961</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O14" t="n">
-        <v>71.07189926570237</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P14" t="n">
-        <v>95.50771753390021</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q14" t="n">
-        <v>120.3816583481039</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K15" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L15" t="n">
-        <v>28.90545725697471</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M15" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>22.44423757443683</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P15" t="n">
-        <v>37.54182911310821</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q15" t="n">
-        <v>75.5191492782957</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9085,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>79.82491575659759</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L16" t="n">
-        <v>71.94053294496764</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M16" t="n">
-        <v>72.56001021962936</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N16" t="n">
-        <v>62.89780050171086</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O16" t="n">
-        <v>78.61457070130248</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P16" t="n">
-        <v>86.52286261917671</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>100.9387195582597</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K17" t="n">
-        <v>100.0299464227919</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L17" t="n">
-        <v>86.82148686318189</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M17" t="n">
-        <v>64.61630209323866</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N17" t="n">
-        <v>61.00144891149961</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O17" t="n">
-        <v>71.07189926570237</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P17" t="n">
-        <v>95.50771753390021</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q17" t="n">
-        <v>120.3816583481039</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K18" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L18" t="n">
-        <v>28.90545725697471</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M18" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>22.44423757443683</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P18" t="n">
-        <v>37.54182911310821</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q18" t="n">
-        <v>75.5191492782957</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9322,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>79.82491575659759</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L19" t="n">
-        <v>71.94053294496764</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M19" t="n">
-        <v>72.56001021962936</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N19" t="n">
-        <v>62.89780050171086</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O19" t="n">
-        <v>78.61457070130248</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P19" t="n">
-        <v>86.52286261917671</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>100.9387195582597</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K20" t="n">
-        <v>100.0299464227919</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L20" t="n">
-        <v>86.82148686318189</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M20" t="n">
-        <v>64.61630209323866</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N20" t="n">
-        <v>61.00144891149961</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O20" t="n">
-        <v>71.07189926570237</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P20" t="n">
-        <v>95.50771753390021</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q20" t="n">
-        <v>120.3816583481039</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K21" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L21" t="n">
-        <v>28.90545725697471</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M21" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>22.44423757443683</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P21" t="n">
-        <v>37.54182911310821</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q21" t="n">
-        <v>75.5191492782957</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9559,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>79.82491575659759</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L22" t="n">
-        <v>71.94053294496764</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M22" t="n">
-        <v>72.56001021962936</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N22" t="n">
-        <v>62.89780050171086</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O22" t="n">
-        <v>78.61457070130248</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P22" t="n">
-        <v>86.52286261917671</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>100.9387195582597</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K23" t="n">
-        <v>100.0299464227919</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L23" t="n">
-        <v>86.82148686318189</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M23" t="n">
-        <v>64.61630209323866</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N23" t="n">
-        <v>61.00144891149961</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O23" t="n">
-        <v>71.07189926570237</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P23" t="n">
-        <v>95.50771753390021</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q23" t="n">
-        <v>120.3816583481039</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K24" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L24" t="n">
-        <v>28.90545725697471</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M24" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>22.44423757443683</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P24" t="n">
-        <v>37.54182911310821</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q24" t="n">
-        <v>75.5191492782957</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9796,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>79.82491575659759</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L25" t="n">
-        <v>71.94053294496764</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M25" t="n">
-        <v>72.56001021962936</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N25" t="n">
-        <v>62.89780050171086</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O25" t="n">
-        <v>78.61457070130248</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P25" t="n">
-        <v>86.52286261917671</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>100.9387195582597</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K26" t="n">
-        <v>100.0299464227919</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L26" t="n">
-        <v>86.82148686318189</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M26" t="n">
-        <v>64.61630209323866</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N26" t="n">
-        <v>61.00144891149961</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O26" t="n">
-        <v>71.07189926570237</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P26" t="n">
-        <v>95.50771753390021</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q26" t="n">
-        <v>120.3816583481039</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K27" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L27" t="n">
-        <v>28.90545725697471</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M27" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>22.44423757443683</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P27" t="n">
-        <v>37.54182911310821</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q27" t="n">
-        <v>75.5191492782957</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10033,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>79.82491575659759</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L28" t="n">
-        <v>71.94053294496764</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M28" t="n">
-        <v>72.56001021962936</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N28" t="n">
-        <v>62.89780050171086</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O28" t="n">
-        <v>78.61457070130248</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P28" t="n">
-        <v>86.52286261917671</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>100.9387195582597</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K29" t="n">
-        <v>100.0299464227919</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L29" t="n">
-        <v>86.82148686318189</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M29" t="n">
-        <v>64.61630209323866</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N29" t="n">
-        <v>61.00144891149961</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O29" t="n">
-        <v>71.07189926570237</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P29" t="n">
-        <v>95.50771753390021</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q29" t="n">
-        <v>120.3816583481039</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K30" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L30" t="n">
-        <v>28.90545725697471</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M30" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>22.44423757443683</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P30" t="n">
-        <v>37.54182911310821</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q30" t="n">
-        <v>75.5191492782957</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10270,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>79.82491575659759</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L31" t="n">
-        <v>71.94053294496764</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M31" t="n">
-        <v>72.56001021962936</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N31" t="n">
-        <v>62.89780050171086</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O31" t="n">
-        <v>78.61457070130248</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P31" t="n">
-        <v>86.52286261917671</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>100.9387195582597</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K32" t="n">
-        <v>100.0299464227919</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L32" t="n">
-        <v>86.82148686318189</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M32" t="n">
-        <v>64.61630209323866</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N32" t="n">
-        <v>61.00144891149961</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O32" t="n">
-        <v>71.07189926570237</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P32" t="n">
-        <v>95.50771753390021</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q32" t="n">
-        <v>120.3816583481039</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K33" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L33" t="n">
-        <v>28.90545725697471</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M33" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>22.44423757443683</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P33" t="n">
-        <v>37.54182911310821</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q33" t="n">
-        <v>75.5191492782957</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10507,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>79.82491575659759</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L34" t="n">
-        <v>71.94053294496764</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M34" t="n">
-        <v>72.56001021962936</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N34" t="n">
-        <v>62.89780050171086</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O34" t="n">
-        <v>78.61457070130248</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P34" t="n">
-        <v>86.52286261917671</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>100.9387195582597</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K35" t="n">
-        <v>100.0299464227919</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L35" t="n">
-        <v>86.82148686318189</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M35" t="n">
-        <v>64.61630209323866</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N35" t="n">
-        <v>61.00144891149961</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O35" t="n">
-        <v>71.07189926570237</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P35" t="n">
-        <v>95.50771753390021</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q35" t="n">
-        <v>120.3816583481039</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K36" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L36" t="n">
-        <v>28.90545725697471</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M36" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>22.44423757443683</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P36" t="n">
-        <v>37.54182911310821</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q36" t="n">
-        <v>75.5191492782957</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10744,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>79.82491575659759</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L37" t="n">
-        <v>71.94053294496764</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M37" t="n">
-        <v>72.56001021962936</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N37" t="n">
-        <v>62.89780050171086</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O37" t="n">
-        <v>78.61457070130248</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P37" t="n">
-        <v>86.52286261917671</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>100.9387195582597</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K38" t="n">
-        <v>100.0299464227919</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L38" t="n">
-        <v>86.82148686318186</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M38" t="n">
-        <v>64.61630209323863</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N38" t="n">
-        <v>61.00144891149961</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O38" t="n">
-        <v>71.0718992657024</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P38" t="n">
-        <v>95.50771753390021</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q38" t="n">
-        <v>120.3816583481039</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K39" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L39" t="n">
-        <v>28.90545725697471</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M39" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>22.44423757443683</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P39" t="n">
-        <v>37.54182911310821</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q39" t="n">
-        <v>75.51914927829571</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10981,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>79.82491575659759</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L40" t="n">
-        <v>71.94053294496764</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M40" t="n">
-        <v>72.56001021962938</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N40" t="n">
-        <v>62.89780050171086</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O40" t="n">
-        <v>78.61457070130248</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P40" t="n">
-        <v>86.52286261917671</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>100.9387195582597</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K41" t="n">
-        <v>100.0299464227919</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L41" t="n">
-        <v>86.82148686318189</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M41" t="n">
-        <v>64.61630209323866</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N41" t="n">
-        <v>61.00144891149961</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O41" t="n">
-        <v>71.07189926570237</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P41" t="n">
-        <v>95.50771753390021</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q41" t="n">
-        <v>120.3816583481039</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K42" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L42" t="n">
-        <v>28.90545725697471</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M42" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>22.44423757443683</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P42" t="n">
-        <v>37.54182911310821</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q42" t="n">
-        <v>75.5191492782957</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11218,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>79.82491575659759</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L43" t="n">
-        <v>71.94053294496764</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M43" t="n">
-        <v>72.56001021962936</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N43" t="n">
-        <v>62.89780050171086</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O43" t="n">
-        <v>78.61457070130248</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P43" t="n">
-        <v>86.52286261917671</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>100.9387195582597</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K44" t="n">
-        <v>100.0299464227919</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L44" t="n">
-        <v>86.82148686318189</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M44" t="n">
-        <v>64.61630209323866</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N44" t="n">
-        <v>61.00144891149961</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O44" t="n">
-        <v>71.07189926570237</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P44" t="n">
-        <v>95.50771753390021</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q44" t="n">
-        <v>120.3816583481039</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K45" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L45" t="n">
-        <v>28.90545725697471</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M45" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>22.44423757443683</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P45" t="n">
-        <v>37.54182911310821</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q45" t="n">
-        <v>75.5191492782957</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11455,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>79.82491575659759</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L46" t="n">
-        <v>71.94053294496764</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M46" t="n">
-        <v>72.56001021962936</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N46" t="n">
-        <v>62.89780050171086</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O46" t="n">
-        <v>78.61457070130248</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P46" t="n">
-        <v>86.52286261917671</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23270,13 +23270,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H11" t="n">
-        <v>329.8087073802583</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I11" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23303,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>90.58066941881005</v>
+        <v>84.01082088999308</v>
       </c>
       <c r="S11" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T11" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23349,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H12" t="n">
-        <v>107.3582211803319</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I12" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S12" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T12" t="n">
-        <v>198.1292300623896</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U12" t="n">
-        <v>225.908158490674</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,16 +23428,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.5676055192152</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H13" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I13" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J13" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604451</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23458,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.71025749466926</v>
+        <v>46.78178798155719</v>
       </c>
       <c r="R13" t="n">
-        <v>158.2569640235438</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S13" t="n">
-        <v>216.6383466748816</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T13" t="n">
-        <v>226.1366284787861</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,13 +23507,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H14" t="n">
-        <v>329.8087073802583</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I14" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>90.58066941881005</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S14" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T14" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23586,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H15" t="n">
-        <v>107.3582211803319</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I15" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S15" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T15" t="n">
-        <v>198.1292300623896</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U15" t="n">
-        <v>225.908158490674</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.5676055192152</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H16" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I16" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J16" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23695,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.71025749466926</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R16" t="n">
-        <v>158.2569640235438</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S16" t="n">
-        <v>216.6383466748816</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T16" t="n">
-        <v>226.1366284787861</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,13 +23744,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H17" t="n">
-        <v>329.8087073802583</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I17" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23777,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>90.58066941881005</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S17" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T17" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23823,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H18" t="n">
-        <v>107.3582211803319</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I18" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S18" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T18" t="n">
-        <v>198.1292300623896</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U18" t="n">
-        <v>225.908158490674</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,16 +23902,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.5676055192152</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H19" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I19" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J19" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23932,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.71025749466926</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R19" t="n">
-        <v>158.2569640235438</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S19" t="n">
-        <v>216.6383466748816</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T19" t="n">
-        <v>226.1366284787861</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,13 +23981,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H20" t="n">
-        <v>329.8087073802583</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I20" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24014,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>90.58066941881005</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S20" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T20" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,13 +24060,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H21" t="n">
-        <v>107.3582211803319</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I21" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24093,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S21" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T21" t="n">
-        <v>198.1292300623896</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U21" t="n">
-        <v>225.908158490674</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,16 +24139,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.5676055192152</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H22" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I22" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J22" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24169,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.71025749466926</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R22" t="n">
-        <v>158.2569640235438</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S22" t="n">
-        <v>216.6383466748816</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T22" t="n">
-        <v>226.1366284787861</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,13 +24218,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H23" t="n">
-        <v>329.8087073802583</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I23" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24251,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>90.58066941881005</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S23" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T23" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,13 +24297,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H24" t="n">
-        <v>107.3582211803319</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I24" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S24" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T24" t="n">
-        <v>198.1292300623896</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U24" t="n">
-        <v>225.908158490674</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,16 +24376,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.5676055192152</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H25" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I25" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J25" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24406,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.71025749466926</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R25" t="n">
-        <v>158.2569640235438</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S25" t="n">
-        <v>216.6383466748816</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T25" t="n">
-        <v>226.1366284787861</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,13 +24455,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H26" t="n">
-        <v>329.8087073802583</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I26" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24488,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>90.58066941881005</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S26" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T26" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,13 +24534,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H27" t="n">
-        <v>107.3582211803319</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I27" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24567,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S27" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T27" t="n">
-        <v>198.1292300623896</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U27" t="n">
-        <v>225.908158490674</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,16 +24613,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.5676055192152</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H28" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I28" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J28" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24643,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.71025749466926</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R28" t="n">
-        <v>158.2569640235438</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S28" t="n">
-        <v>216.6383466748816</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T28" t="n">
-        <v>226.1366284787861</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,13 +24692,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H29" t="n">
-        <v>329.8087073802583</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I29" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24725,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>90.58066941881005</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S29" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T29" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,13 +24771,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H30" t="n">
-        <v>107.3582211803319</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I30" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24804,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S30" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T30" t="n">
-        <v>198.1292300623896</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U30" t="n">
-        <v>225.908158490674</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,16 +24850,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.5676055192152</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H31" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I31" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J31" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24880,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.71025749466926</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R31" t="n">
-        <v>158.2569640235438</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S31" t="n">
-        <v>216.6383466748816</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T31" t="n">
-        <v>226.1366284787861</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,13 +24929,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H32" t="n">
-        <v>329.8087073802583</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I32" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24962,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>90.58066941881005</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S32" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T32" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,13 +25008,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H33" t="n">
-        <v>107.3582211803319</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I33" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25041,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S33" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T33" t="n">
-        <v>198.1292300623896</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U33" t="n">
-        <v>225.908158490674</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,16 +25087,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.5676055192152</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H34" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I34" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J34" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25117,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>50.71025749466926</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R34" t="n">
-        <v>158.2569640235438</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S34" t="n">
-        <v>216.6383466748816</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T34" t="n">
-        <v>226.1366284787861</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,13 +25166,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H35" t="n">
-        <v>329.8087073802583</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I35" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25199,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>90.58066941881005</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S35" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T35" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,13 +25245,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H36" t="n">
-        <v>107.3582211803319</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I36" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25278,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S36" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T36" t="n">
-        <v>198.1292300623896</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U36" t="n">
-        <v>225.908158490674</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,16 +25324,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.5676055192152</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H37" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I37" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J37" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25354,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.71025749466926</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R37" t="n">
-        <v>158.2569640235438</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S37" t="n">
-        <v>216.6383466748816</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T37" t="n">
-        <v>226.1366284787861</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,13 +25403,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H38" t="n">
-        <v>329.8087073802583</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I38" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25436,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>90.58066941881005</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S38" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T38" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,13 +25482,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H39" t="n">
-        <v>107.3582211803319</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I39" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25515,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S39" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T39" t="n">
-        <v>198.1292300623896</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U39" t="n">
-        <v>225.908158490674</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,16 +25561,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.5676055192152</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H40" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J40" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25591,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.71025749466926</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R40" t="n">
-        <v>158.2569640235438</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S40" t="n">
-        <v>216.6383466748816</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T40" t="n">
-        <v>226.1366284787861</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,13 +25640,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H41" t="n">
-        <v>329.8087073802583</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I41" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25673,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>90.58066941881005</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S41" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T41" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,13 +25719,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H42" t="n">
-        <v>107.3582211803319</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I42" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25752,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S42" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T42" t="n">
-        <v>198.1292300623896</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U42" t="n">
-        <v>225.908158490674</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,16 +25798,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.5676055192152</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H43" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I43" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J43" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25828,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.71025749466926</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R43" t="n">
-        <v>158.2569640235438</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S43" t="n">
-        <v>216.6383466748816</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T43" t="n">
-        <v>226.1366284787861</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,13 +25877,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H44" t="n">
-        <v>329.8087073802583</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I44" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25910,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>90.58066941881005</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S44" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T44" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,13 +25956,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H45" t="n">
-        <v>107.3582211803319</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I45" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25989,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S45" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T45" t="n">
-        <v>198.1292300623896</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U45" t="n">
-        <v>225.908158490674</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,16 +26035,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.5676055192152</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H46" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I46" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J46" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26065,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.71025749466926</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R46" t="n">
-        <v>158.2569640235438</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S46" t="n">
-        <v>216.6383466748816</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T46" t="n">
-        <v>226.1366284787861</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>370224.4769365164</v>
+        <v>369833.8790435977</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>370224.4769365164</v>
+        <v>369833.8790435977</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>370224.4769365164</v>
+        <v>369833.8790435977</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>370224.4769365164</v>
+        <v>369833.8790435977</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>370224.4769365164</v>
+        <v>369833.8790435977</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>370224.4769365164</v>
+        <v>369833.8790435977</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>370224.4769365164</v>
+        <v>369833.8790435977</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>370224.4769365164</v>
+        <v>369833.8790435977</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>370224.4769365164</v>
+        <v>369833.8790435977</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>370224.4769365164</v>
+        <v>369833.8790435977</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>370224.4769365164</v>
+        <v>369833.8790435977</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>370224.4769365164</v>
+        <v>369833.8790435977</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26320,40 @@
         <v>53753.70276572321</v>
       </c>
       <c r="E2" t="n">
-        <v>58333.35092591059</v>
+        <v>58774.95546818497</v>
       </c>
       <c r="F2" t="n">
-        <v>58333.3509259106</v>
+        <v>58774.95546818496</v>
       </c>
       <c r="G2" t="n">
-        <v>58333.3509259106</v>
+        <v>58774.95546818496</v>
       </c>
       <c r="H2" t="n">
-        <v>58333.3509259106</v>
+        <v>58774.95546818496</v>
       </c>
       <c r="I2" t="n">
-        <v>58333.3509259106</v>
+        <v>58774.95546818496</v>
       </c>
       <c r="J2" t="n">
-        <v>58333.3509259106</v>
+        <v>58774.95546818496</v>
       </c>
       <c r="K2" t="n">
-        <v>58333.3509259106</v>
+        <v>58774.95546818497</v>
       </c>
       <c r="L2" t="n">
-        <v>58333.3509259106</v>
+        <v>58774.95546818496</v>
       </c>
       <c r="M2" t="n">
-        <v>58333.3509259106</v>
+        <v>58774.95546818496</v>
       </c>
       <c r="N2" t="n">
-        <v>58333.3509259106</v>
+        <v>58774.95546818496</v>
       </c>
       <c r="O2" t="n">
-        <v>58333.3509259106</v>
+        <v>58774.95546818496</v>
       </c>
       <c r="P2" t="n">
-        <v>58333.3509259106</v>
+        <v>58774.95546818497</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>188622.9869705381</v>
+        <v>209524.6041377088</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45814.66692941387</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="C4" t="n">
-        <v>45814.66692941387</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="D4" t="n">
-        <v>45814.66692941387</v>
+        <v>48378.33248915087</v>
       </c>
       <c r="E4" t="n">
-        <v>19152.64108963405</v>
+        <v>17184.14623448761</v>
       </c>
       <c r="F4" t="n">
-        <v>19152.64108963405</v>
+        <v>17184.14623448761</v>
       </c>
       <c r="G4" t="n">
-        <v>19152.64108963405</v>
+        <v>17184.14623448761</v>
       </c>
       <c r="H4" t="n">
-        <v>19152.64108963405</v>
+        <v>17184.14623448761</v>
       </c>
       <c r="I4" t="n">
-        <v>19152.64108963405</v>
+        <v>17184.14623448761</v>
       </c>
       <c r="J4" t="n">
-        <v>19152.64108963405</v>
+        <v>17184.14623448761</v>
       </c>
       <c r="K4" t="n">
-        <v>19152.64108963405</v>
+        <v>17184.14623448761</v>
       </c>
       <c r="L4" t="n">
-        <v>19152.64108963405</v>
+        <v>17184.14623448761</v>
       </c>
       <c r="M4" t="n">
-        <v>19152.64108963405</v>
+        <v>17184.14623448761</v>
       </c>
       <c r="N4" t="n">
-        <v>19152.64108963405</v>
+        <v>17184.14623448761</v>
       </c>
       <c r="O4" t="n">
-        <v>19152.64108963405</v>
+        <v>17184.14623448761</v>
       </c>
       <c r="P4" t="n">
-        <v>19152.64108963405</v>
+        <v>17184.14623448761</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>5118.204831146673</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="F5" t="n">
-        <v>5118.204831146673</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="G5" t="n">
-        <v>5118.204831146673</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="H5" t="n">
-        <v>5118.204831146673</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="I5" t="n">
-        <v>5118.204831146673</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="J5" t="n">
-        <v>5118.204831146673</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="K5" t="n">
-        <v>5118.204831146673</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="L5" t="n">
-        <v>5118.204831146673</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="M5" t="n">
-        <v>5118.204831146673</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="N5" t="n">
-        <v>5118.204831146673</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="O5" t="n">
-        <v>5118.204831146673</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="P5" t="n">
-        <v>5118.204831146673</v>
+        <v>5685.361356880733</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25688.56416369065</v>
+        <v>-28252.22972342766</v>
       </c>
       <c r="C6" t="n">
-        <v>-25688.56416369065</v>
+        <v>-28252.22972342766</v>
       </c>
       <c r="D6" t="n">
-        <v>-25688.56416369065</v>
+        <v>-28252.22972342766</v>
       </c>
       <c r="E6" t="n">
-        <v>-154560.4819654083</v>
+        <v>-173619.1562608921</v>
       </c>
       <c r="F6" t="n">
-        <v>34062.50500512988</v>
+        <v>35905.44787681662</v>
       </c>
       <c r="G6" t="n">
-        <v>34062.50500512988</v>
+        <v>35905.44787681662</v>
       </c>
       <c r="H6" t="n">
-        <v>34062.50500512988</v>
+        <v>35905.44787681662</v>
       </c>
       <c r="I6" t="n">
-        <v>34062.50500512988</v>
+        <v>35905.44787681662</v>
       </c>
       <c r="J6" t="n">
-        <v>34062.50500512988</v>
+        <v>35905.44787681662</v>
       </c>
       <c r="K6" t="n">
-        <v>34062.50500512988</v>
+        <v>35905.44787681663</v>
       </c>
       <c r="L6" t="n">
-        <v>34062.50500512988</v>
+        <v>35905.44787681662</v>
       </c>
       <c r="M6" t="n">
-        <v>34062.50500512988</v>
+        <v>35905.44787681662</v>
       </c>
       <c r="N6" t="n">
-        <v>34062.50500512988</v>
+        <v>35905.44787681662</v>
       </c>
       <c r="O6" t="n">
-        <v>34062.50500512988</v>
+        <v>35905.44787681662</v>
       </c>
       <c r="P6" t="n">
-        <v>34062.50500512988</v>
+        <v>35905.44787681663</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="F3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="G3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="H3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="I3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="J3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="K3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="L3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="M3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="N3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="O3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="P3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H11" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I11" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J11" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388617</v>
       </c>
       <c r="K11" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L11" t="n">
-        <v>148.9449281068053</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M11" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N11" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O11" t="n">
-        <v>159.0263121559844</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P11" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q11" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R11" t="n">
-        <v>59.28844852233964</v>
+        <v>65.8582970511566</v>
       </c>
       <c r="S11" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T11" t="n">
-        <v>4.131656751342872</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U11" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903385</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H12" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051488</v>
       </c>
       <c r="I12" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J12" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K12" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L12" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M12" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P12" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q12" t="n">
-        <v>64.46262480772582</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R12" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S12" t="n">
-        <v>9.380126994939479</v>
+        <v>10.41955398407041</v>
       </c>
       <c r="T12" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H13" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I13" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J13" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062826</v>
       </c>
       <c r="K13" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L13" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M13" t="n">
-        <v>66.36577372797569</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N13" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O13" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707451</v>
       </c>
       <c r="P13" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298936</v>
       </c>
       <c r="Q13" t="n">
-        <v>35.45178575702512</v>
+        <v>39.38025527013719</v>
       </c>
       <c r="R13" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S13" t="n">
-        <v>7.378251362090666</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T13" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H14" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I14" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J14" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K14" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L14" t="n">
-        <v>148.9449281068053</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M14" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N14" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O14" t="n">
-        <v>159.0263121559844</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P14" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q14" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R14" t="n">
-        <v>59.28844852233964</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S14" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T14" t="n">
-        <v>4.131656751342872</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U14" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H15" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I15" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J15" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K15" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L15" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M15" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P15" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q15" t="n">
-        <v>64.46262480772582</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R15" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S15" t="n">
-        <v>9.380126994939479</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T15" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H16" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I16" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J16" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K16" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L16" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M16" t="n">
-        <v>66.36577372797569</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N16" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O16" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P16" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q16" t="n">
-        <v>35.45178575702512</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R16" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S16" t="n">
-        <v>7.378251362090666</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T16" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H17" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I17" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J17" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K17" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L17" t="n">
-        <v>148.9449281068053</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M17" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N17" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O17" t="n">
-        <v>159.0263121559844</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P17" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q17" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R17" t="n">
-        <v>59.28844852233964</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S17" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T17" t="n">
-        <v>4.131656751342872</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U17" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H18" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I18" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J18" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K18" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L18" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M18" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P18" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q18" t="n">
-        <v>64.46262480772582</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R18" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S18" t="n">
-        <v>9.380126994939479</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T18" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H19" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I19" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J19" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K19" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L19" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M19" t="n">
-        <v>66.36577372797569</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N19" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O19" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P19" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q19" t="n">
-        <v>35.45178575702512</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R19" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S19" t="n">
-        <v>7.378251362090666</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T19" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H20" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I20" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J20" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K20" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L20" t="n">
-        <v>148.9449281068053</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M20" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N20" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O20" t="n">
-        <v>159.0263121559844</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P20" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q20" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R20" t="n">
-        <v>59.28844852233964</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S20" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T20" t="n">
-        <v>4.131656751342872</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H21" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I21" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J21" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K21" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L21" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M21" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P21" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q21" t="n">
-        <v>64.46262480772582</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R21" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S21" t="n">
-        <v>9.380126994939479</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T21" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H22" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I22" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J22" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K22" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L22" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M22" t="n">
-        <v>66.36577372797569</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N22" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O22" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P22" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q22" t="n">
-        <v>35.45178575702512</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R22" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S22" t="n">
-        <v>7.378251362090666</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T22" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H23" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I23" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J23" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K23" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L23" t="n">
-        <v>148.9449281068053</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M23" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N23" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O23" t="n">
-        <v>159.0263121559844</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P23" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q23" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R23" t="n">
-        <v>59.28844852233964</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S23" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T23" t="n">
-        <v>4.131656751342872</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U23" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H24" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I24" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J24" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K24" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L24" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M24" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P24" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q24" t="n">
-        <v>64.46262480772582</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R24" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S24" t="n">
-        <v>9.380126994939479</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T24" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H25" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I25" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J25" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K25" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L25" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M25" t="n">
-        <v>66.36577372797569</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N25" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O25" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P25" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.45178575702512</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R25" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S25" t="n">
-        <v>7.378251362090666</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T25" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H26" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I26" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J26" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K26" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L26" t="n">
-        <v>148.9449281068053</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M26" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N26" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O26" t="n">
-        <v>159.0263121559844</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P26" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R26" t="n">
-        <v>59.28844852233964</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S26" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T26" t="n">
-        <v>4.131656751342872</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U26" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H27" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I27" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J27" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K27" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L27" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M27" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P27" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q27" t="n">
-        <v>64.46262480772582</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R27" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S27" t="n">
-        <v>9.380126994939479</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T27" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H28" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I28" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J28" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K28" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L28" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M28" t="n">
-        <v>66.36577372797569</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N28" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O28" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P28" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q28" t="n">
-        <v>35.45178575702512</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R28" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S28" t="n">
-        <v>7.378251362090666</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T28" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H29" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I29" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J29" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K29" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L29" t="n">
-        <v>148.9449281068053</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M29" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N29" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O29" t="n">
-        <v>159.0263121559844</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P29" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q29" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R29" t="n">
-        <v>59.28844852233964</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S29" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T29" t="n">
-        <v>4.131656751342872</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U29" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H30" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I30" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J30" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K30" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L30" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M30" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P30" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q30" t="n">
-        <v>64.46262480772582</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R30" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S30" t="n">
-        <v>9.380126994939479</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T30" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H31" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I31" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J31" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K31" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L31" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M31" t="n">
-        <v>66.36577372797569</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N31" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O31" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P31" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q31" t="n">
-        <v>35.45178575702512</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R31" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S31" t="n">
-        <v>7.378251362090666</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T31" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H32" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I32" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J32" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K32" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L32" t="n">
-        <v>148.9449281068053</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M32" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N32" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O32" t="n">
-        <v>159.0263121559844</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P32" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R32" t="n">
-        <v>59.28844852233964</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S32" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T32" t="n">
-        <v>4.131656751342872</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U32" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H33" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I33" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J33" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K33" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L33" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M33" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P33" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q33" t="n">
-        <v>64.46262480772582</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R33" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S33" t="n">
-        <v>9.380126994939479</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T33" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H34" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I34" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J34" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K34" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L34" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M34" t="n">
-        <v>66.36577372797569</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N34" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O34" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P34" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.45178575702512</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R34" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S34" t="n">
-        <v>7.378251362090666</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T34" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H35" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I35" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J35" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K35" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L35" t="n">
-        <v>148.9449281068053</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M35" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N35" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O35" t="n">
-        <v>159.0263121559844</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P35" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q35" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R35" t="n">
-        <v>59.28844852233964</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S35" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T35" t="n">
-        <v>4.131656751342872</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U35" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H36" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I36" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J36" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K36" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L36" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M36" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P36" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q36" t="n">
-        <v>64.46262480772582</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R36" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S36" t="n">
-        <v>9.380126994939479</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T36" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H37" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I37" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J37" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K37" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L37" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M37" t="n">
-        <v>66.36577372797569</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N37" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O37" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P37" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.45178575702512</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R37" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S37" t="n">
-        <v>7.378251362090666</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T37" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H38" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I38" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J38" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K38" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L38" t="n">
-        <v>148.9449281068054</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M38" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N38" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O38" t="n">
-        <v>159.0263121559843</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P38" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q38" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R38" t="n">
-        <v>59.28844852233964</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S38" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T38" t="n">
-        <v>4.131656751342871</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U38" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H39" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I39" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J39" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K39" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L39" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M39" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P39" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q39" t="n">
-        <v>64.4626248077258</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R39" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S39" t="n">
-        <v>9.380126994939479</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T39" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.423373839243596</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H40" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I40" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J40" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K40" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L40" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M40" t="n">
-        <v>66.36577372797568</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N40" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O40" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P40" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.45178575702513</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R40" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S40" t="n">
-        <v>7.378251362090667</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T40" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H41" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I41" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J41" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K41" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L41" t="n">
-        <v>148.9449281068053</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M41" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N41" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O41" t="n">
-        <v>159.0263121559844</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P41" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q41" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R41" t="n">
-        <v>59.28844852233964</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S41" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T41" t="n">
-        <v>4.131656751342872</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U41" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H42" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I42" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J42" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K42" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L42" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M42" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P42" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q42" t="n">
-        <v>64.46262480772582</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R42" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S42" t="n">
-        <v>9.380126994939479</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T42" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H43" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I43" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J43" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K43" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L43" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M43" t="n">
-        <v>66.36577372797569</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N43" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O43" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P43" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.45178575702512</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R43" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S43" t="n">
-        <v>7.378251362090666</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T43" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H44" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I44" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J44" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K44" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L44" t="n">
-        <v>148.9449281068053</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M44" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N44" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O44" t="n">
-        <v>159.0263121559844</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P44" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q44" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R44" t="n">
-        <v>59.28844852233964</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S44" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T44" t="n">
-        <v>4.131656751342872</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U44" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H45" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I45" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J45" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K45" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L45" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M45" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P45" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q45" t="n">
-        <v>64.46262480772582</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R45" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S45" t="n">
-        <v>9.380126994939479</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T45" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H46" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I46" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J46" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K46" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L46" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M46" t="n">
-        <v>66.36577372797569</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N46" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O46" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P46" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.45178575702512</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R46" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S46" t="n">
-        <v>7.378251362090666</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T46" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_9_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_9_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32514.98895975924</v>
+        <v>-7848.722221705564</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9572936.676005716</v>
+        <v>10411128.37205422</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22123460.63075672</v>
+        <v>22003233.34202397</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4279513.117579895</v>
+        <v>4277126.29892484</v>
       </c>
     </row>
     <row r="11">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>92.06191329280011</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K11" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L11" t="n">
-        <v>70.31665934305323</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M11" t="n">
-        <v>46.25150133729363</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N11" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P11" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>73.83937108913167</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K12" t="n">
-        <v>47.25897875440141</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L12" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.37594193669796</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L13" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M13" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N13" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O13" t="n">
-        <v>71.98338581476828</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P13" t="n">
-        <v>80.84873837615825</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K14" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L14" t="n">
-        <v>70.31665934305323</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M14" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N14" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P14" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K15" t="n">
-        <v>47.25897875440141</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L15" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.37594193669796</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L16" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M16" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N16" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O16" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P16" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K17" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L17" t="n">
-        <v>70.31665934305323</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M17" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N17" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P17" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K18" t="n">
-        <v>47.25897875440141</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L18" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.37594193669796</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L19" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M19" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N19" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O19" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P19" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K20" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L20" t="n">
-        <v>70.31665934305323</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M20" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N20" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P20" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q20" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K21" t="n">
-        <v>47.25897875440141</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L21" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.37594193669796</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L22" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M22" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N22" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O22" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P22" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K23" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L23" t="n">
-        <v>70.31665934305323</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M23" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N23" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P23" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q23" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K24" t="n">
-        <v>47.25897875440141</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L24" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q24" t="n">
-        <v>68.37594193669796</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L25" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M25" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N25" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O25" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P25" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K26" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L26" t="n">
-        <v>70.31665934305323</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M26" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N26" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P26" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q26" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K27" t="n">
-        <v>47.25897875440141</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L27" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q27" t="n">
-        <v>68.37594193669796</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L28" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M28" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N28" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O28" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P28" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K29" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L29" t="n">
-        <v>70.31665934305323</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M29" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N29" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P29" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q29" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K30" t="n">
-        <v>47.25897875440141</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L30" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q30" t="n">
-        <v>68.37594193669796</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L31" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M31" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N31" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O31" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P31" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K32" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L32" t="n">
-        <v>70.31665934305323</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M32" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N32" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P32" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K33" t="n">
-        <v>47.25897875440141</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L33" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q33" t="n">
-        <v>68.37594193669796</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L34" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M34" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N34" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O34" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P34" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K35" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L35" t="n">
-        <v>70.31665934305323</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M35" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N35" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P35" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q35" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K36" t="n">
-        <v>47.25897875440141</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L36" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q36" t="n">
-        <v>68.37594193669796</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L37" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M37" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N37" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O37" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P37" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K38" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L38" t="n">
-        <v>70.31665934305323</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M38" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N38" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P38" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q38" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K39" t="n">
-        <v>47.25897875440141</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L39" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q39" t="n">
-        <v>68.37594193669796</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L40" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M40" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N40" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O40" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P40" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K41" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L41" t="n">
-        <v>70.31665934305323</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M41" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N41" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P41" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q41" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K42" t="n">
-        <v>47.25897875440141</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L42" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,13 +11153,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q42" t="n">
-        <v>68.37594193669796</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L43" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M43" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N43" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O43" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P43" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>92.06191329280013</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K44" t="n">
-        <v>86.72591490550931</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L44" t="n">
-        <v>70.31665934305323</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M44" t="n">
-        <v>46.25150133729366</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N44" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>53.44993733213093</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P44" t="n">
-        <v>80.46778072209531</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q44" t="n">
-        <v>109.0872921559756</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>73.83937108913169</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K45" t="n">
-        <v>47.25897875440141</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L45" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>26.85597970277001</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q45" t="n">
-        <v>68.37594193669796</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>74.37427626277801</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L46" t="n">
-        <v>64.96559098237566</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M46" t="n">
-        <v>65.20591187910269</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N46" t="n">
-        <v>55.71856618250388</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O46" t="n">
-        <v>71.9833858147683</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P46" t="n">
-        <v>80.84873837615827</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H11" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I11" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>84.01082088999308</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S11" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T11" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H12" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I12" t="n">
-        <v>70.08293774516886</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>65.32921403493339</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S12" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T12" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H13" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I13" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J13" t="n">
-        <v>60.10977774604451</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.78178798155719</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R13" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S13" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T13" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H14" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I14" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>84.0108208899931</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S14" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T14" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H15" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I15" t="n">
-        <v>70.08293774516886</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>65.32921403493339</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S15" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T15" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H16" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I16" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J16" t="n">
-        <v>60.10977774604452</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.7817879815572</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R16" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S16" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T16" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H17" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I17" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>84.0108208899931</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S17" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T17" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H18" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I18" t="n">
-        <v>70.08293774516886</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>65.32921403493339</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S18" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T18" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H19" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I19" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J19" t="n">
-        <v>60.10977774604452</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.7817879815572</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R19" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S19" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T19" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H20" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I20" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>84.0108208899931</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S20" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T20" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H21" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I21" t="n">
-        <v>70.08293774516886</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>65.32921403493339</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S21" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T21" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H22" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I22" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J22" t="n">
-        <v>60.10977774604452</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.7817879815572</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R22" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S22" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T22" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H23" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I23" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>84.0108208899931</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S23" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T23" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H24" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I24" t="n">
-        <v>70.08293774516886</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>65.32921403493339</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S24" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T24" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H25" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I25" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J25" t="n">
-        <v>60.10977774604452</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.7817879815572</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R25" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S25" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T25" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H26" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I26" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>84.0108208899931</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S26" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T26" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H27" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I27" t="n">
-        <v>70.08293774516886</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>65.32921403493339</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S27" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T27" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H28" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I28" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J28" t="n">
-        <v>60.10977774604452</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.7817879815572</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R28" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S28" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T28" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H29" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I29" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>84.0108208899931</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S29" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T29" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H30" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I30" t="n">
-        <v>70.08293774516886</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>65.32921403493339</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S30" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T30" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H31" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I31" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J31" t="n">
-        <v>60.10977774604452</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.7817879815572</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R31" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S31" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T31" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H32" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I32" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>84.0108208899931</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S32" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T32" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H33" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I33" t="n">
-        <v>70.08293774516886</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>65.32921403493339</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S33" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T33" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H34" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I34" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J34" t="n">
-        <v>60.10977774604452</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.7817879815572</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R34" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S34" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T34" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H35" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I35" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>84.0108208899931</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S35" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T35" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H36" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I36" t="n">
-        <v>70.08293774516886</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>65.32921403493339</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S36" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T36" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H37" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I37" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J37" t="n">
-        <v>60.10977774604452</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.7817879815572</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R37" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S37" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T37" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H38" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I38" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>84.0108208899931</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S38" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T38" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H39" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I39" t="n">
-        <v>70.08293774516886</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>65.32921403493339</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S39" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T39" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H40" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I40" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J40" t="n">
-        <v>60.10977774604452</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.7817879815572</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R40" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S40" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T40" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H41" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I41" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>84.0108208899931</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S41" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T41" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H42" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I42" t="n">
-        <v>70.08293774516886</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>65.32921403493339</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S42" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T42" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H43" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I43" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J43" t="n">
-        <v>60.10977774604452</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.7817879815572</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R43" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S43" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T43" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.2543098065221</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H44" t="n">
-        <v>328.737591844935</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I44" t="n">
-        <v>170.0563803341062</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>84.0108208899931</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S44" t="n">
-        <v>185.1290231762283</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T44" t="n">
-        <v>218.5063572696783</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2617786911475</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.7825588849655</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H45" t="n">
-        <v>106.817768233445</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I45" t="n">
-        <v>70.08293774516886</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>65.32921403493339</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S45" t="n">
-        <v>161.2636171197674</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T45" t="n">
-        <v>197.9036731785617</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9044769310903</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.5206907817879</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H46" t="n">
-        <v>158.0458795257661</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I46" t="n">
-        <v>141.3076148215571</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J46" t="n">
-        <v>60.10977774604452</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.7817879815572</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R46" t="n">
-        <v>156.1475068297698</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S46" t="n">
-        <v>215.8207507508087</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T46" t="n">
-        <v>225.9361746006879</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2933772523089</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>369833.8790435977</v>
+        <v>369558.8057598721</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>369833.8790435977</v>
+        <v>369558.8057598721</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>369833.8790435977</v>
+        <v>369558.8057598721</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>369833.8790435977</v>
+        <v>369558.8057598721</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>369833.8790435977</v>
+        <v>369558.8057598721</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>369833.8790435977</v>
+        <v>369558.8057598721</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>369833.8790435977</v>
+        <v>369558.8057598721</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>369833.8790435977</v>
+        <v>369558.8057598721</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>369833.8790435977</v>
+        <v>369558.8057598721</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>369833.8790435977</v>
+        <v>369558.8057598721</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>369833.8790435977</v>
+        <v>369558.8057598721</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>369833.8790435977</v>
+        <v>369558.8057598721</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>53753.70276572321</v>
       </c>
       <c r="E2" t="n">
-        <v>58774.95546818497</v>
+        <v>59776.84954095795</v>
       </c>
       <c r="F2" t="n">
-        <v>58774.95546818496</v>
+        <v>59776.84954095795</v>
       </c>
       <c r="G2" t="n">
-        <v>58774.95546818496</v>
+        <v>59776.84954095795</v>
       </c>
       <c r="H2" t="n">
-        <v>58774.95546818496</v>
+        <v>59776.84954095795</v>
       </c>
       <c r="I2" t="n">
-        <v>58774.95546818496</v>
+        <v>59776.84954095796</v>
       </c>
       <c r="J2" t="n">
-        <v>58774.95546818496</v>
+        <v>59776.84954095795</v>
       </c>
       <c r="K2" t="n">
-        <v>58774.95546818497</v>
+        <v>59776.84954095795</v>
       </c>
       <c r="L2" t="n">
-        <v>58774.95546818496</v>
+        <v>59776.84954095796</v>
       </c>
       <c r="M2" t="n">
-        <v>58774.95546818496</v>
+        <v>59776.84954095796</v>
       </c>
       <c r="N2" t="n">
-        <v>58774.95546818496</v>
+        <v>59776.84954095796</v>
       </c>
       <c r="O2" t="n">
-        <v>58774.95546818496</v>
+        <v>59776.84954095796</v>
       </c>
       <c r="P2" t="n">
-        <v>58774.95546818497</v>
+        <v>59776.84954095796</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>209524.6041377088</v>
+        <v>256945.3264049829</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>48378.33248915087</v>
       </c>
       <c r="C4" t="n">
-        <v>48378.33248915087</v>
+        <v>48378.33248915088</v>
       </c>
       <c r="D4" t="n">
         <v>48378.33248915087</v>
       </c>
       <c r="E4" t="n">
-        <v>17184.14623448761</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="F4" t="n">
-        <v>17184.14623448761</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="G4" t="n">
-        <v>17184.14623448761</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="H4" t="n">
-        <v>17184.14623448761</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="I4" t="n">
-        <v>17184.14623448761</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="J4" t="n">
-        <v>17184.14623448761</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="K4" t="n">
-        <v>17184.14623448761</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="L4" t="n">
-        <v>17184.14623448761</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="M4" t="n">
-        <v>17184.14623448761</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="N4" t="n">
-        <v>17184.14623448761</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="O4" t="n">
-        <v>17184.14623448761</v>
+        <v>10897.70851412389</v>
       </c>
       <c r="P4" t="n">
-        <v>17184.14623448761</v>
+        <v>10897.70851412389</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="F5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="G5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="H5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="I5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="J5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="K5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="L5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="M5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="N5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="O5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="P5" t="n">
-        <v>5685.361356880733</v>
+        <v>6972.102563257328</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-28252.22972342766</v>
       </c>
       <c r="C6" t="n">
-        <v>-28252.22972342766</v>
+        <v>-28252.22972342767</v>
       </c>
       <c r="D6" t="n">
         <v>-28252.22972342766</v>
       </c>
       <c r="E6" t="n">
-        <v>-173619.1562608921</v>
+        <v>-215038.2879414062</v>
       </c>
       <c r="F6" t="n">
-        <v>35905.44787681662</v>
+        <v>41907.03846357673</v>
       </c>
       <c r="G6" t="n">
-        <v>35905.44787681662</v>
+        <v>41907.03846357673</v>
       </c>
       <c r="H6" t="n">
-        <v>35905.44787681662</v>
+        <v>41907.03846357673</v>
       </c>
       <c r="I6" t="n">
-        <v>35905.44787681662</v>
+        <v>41907.03846357674</v>
       </c>
       <c r="J6" t="n">
-        <v>35905.44787681662</v>
+        <v>41907.03846357673</v>
       </c>
       <c r="K6" t="n">
-        <v>35905.44787681663</v>
+        <v>41907.03846357673</v>
       </c>
       <c r="L6" t="n">
-        <v>35905.44787681662</v>
+        <v>41907.03846357674</v>
       </c>
       <c r="M6" t="n">
-        <v>35905.44787681662</v>
+        <v>41907.03846357674</v>
       </c>
       <c r="N6" t="n">
-        <v>35905.44787681662</v>
+        <v>41907.03846357674</v>
       </c>
       <c r="O6" t="n">
-        <v>35905.44787681662</v>
+        <v>41907.03846357674</v>
       </c>
       <c r="P6" t="n">
-        <v>35905.44787681663</v>
+        <v>41907.03846357674</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="F3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="G3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="H3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="I3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="J3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="K3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="L3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="M3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="N3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="O3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="P3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>260.7963925174648</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H11" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I11" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J11" t="n">
-        <v>88.98399123388617</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K11" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L11" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M11" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N11" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P11" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q11" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R11" t="n">
-        <v>65.8582970511566</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S11" t="n">
-        <v>23.89104641001701</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T11" t="n">
-        <v>4.589492294453073</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H12" t="n">
-        <v>5.417676003051488</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I12" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J12" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K12" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L12" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -31853,25 +31855,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q12" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R12" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S12" t="n">
-        <v>10.41955398407041</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T12" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H13" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I13" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J13" t="n">
-        <v>33.24940237062826</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K13" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L13" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M13" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N13" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O13" t="n">
-        <v>66.47315263707451</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P13" t="n">
-        <v>56.87926567298936</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.38025527013719</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R13" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S13" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T13" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H14" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I14" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J14" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K14" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L14" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M14" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N14" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P14" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R14" t="n">
-        <v>65.85829705115658</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S14" t="n">
-        <v>23.89104641001701</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T14" t="n">
-        <v>4.589492294453073</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H15" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I15" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J15" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K15" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L15" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -32090,25 +32092,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q15" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R15" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S15" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T15" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H16" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I16" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J16" t="n">
-        <v>33.24940237062825</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K16" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L16" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M16" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N16" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O16" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P16" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R16" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S16" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T16" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H17" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I17" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J17" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K17" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L17" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M17" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N17" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P17" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q17" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R17" t="n">
-        <v>65.85829705115658</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S17" t="n">
-        <v>23.89104641001701</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T17" t="n">
-        <v>4.589492294453073</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H18" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I18" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J18" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K18" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L18" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
@@ -32327,25 +32329,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q18" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R18" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S18" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T18" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H19" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I19" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J19" t="n">
-        <v>33.24940237062825</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K19" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L19" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M19" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N19" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O19" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P19" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R19" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S19" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T19" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H20" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I20" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J20" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K20" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L20" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M20" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N20" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P20" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q20" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R20" t="n">
-        <v>65.85829705115658</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S20" t="n">
-        <v>23.89104641001701</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T20" t="n">
-        <v>4.589492294453073</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H21" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I21" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J21" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K21" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L21" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -32564,25 +32566,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q21" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R21" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S21" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T21" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H22" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I22" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J22" t="n">
-        <v>33.24940237062825</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K22" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L22" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M22" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N22" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O22" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P22" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R22" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S22" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T22" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H23" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I23" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J23" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K23" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L23" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M23" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N23" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P23" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q23" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R23" t="n">
-        <v>65.85829705115658</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S23" t="n">
-        <v>23.89104641001701</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T23" t="n">
-        <v>4.589492294453073</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H24" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I24" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J24" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K24" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L24" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
@@ -32801,25 +32803,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q24" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R24" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S24" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T24" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H25" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I25" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J25" t="n">
-        <v>33.24940237062825</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K25" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L25" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M25" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N25" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O25" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P25" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R25" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S25" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T25" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H26" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I26" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J26" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K26" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L26" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M26" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N26" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P26" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R26" t="n">
-        <v>65.85829705115658</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S26" t="n">
-        <v>23.89104641001701</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T26" t="n">
-        <v>4.589492294453073</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H27" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I27" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J27" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K27" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L27" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
@@ -33038,25 +33040,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q27" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R27" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S27" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T27" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H28" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I28" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J28" t="n">
-        <v>33.24940237062825</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K28" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L28" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M28" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N28" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O28" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P28" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R28" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S28" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T28" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H29" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I29" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J29" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K29" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L29" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M29" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N29" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P29" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q29" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R29" t="n">
-        <v>65.85829705115658</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S29" t="n">
-        <v>23.89104641001701</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T29" t="n">
-        <v>4.589492294453073</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H30" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I30" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J30" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K30" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L30" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -33275,25 +33277,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q30" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R30" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S30" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T30" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H31" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I31" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J31" t="n">
-        <v>33.24940237062825</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K31" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L31" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M31" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N31" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O31" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P31" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R31" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S31" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T31" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H32" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I32" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J32" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K32" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L32" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M32" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N32" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P32" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q32" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R32" t="n">
-        <v>65.85829705115658</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S32" t="n">
-        <v>23.89104641001701</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T32" t="n">
-        <v>4.589492294453073</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H33" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I33" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J33" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K33" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L33" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
@@ -33512,25 +33514,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q33" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R33" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S33" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T33" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H34" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I34" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J34" t="n">
-        <v>33.24940237062825</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K34" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L34" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M34" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N34" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O34" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P34" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R34" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S34" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T34" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H35" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I35" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J35" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K35" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L35" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M35" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N35" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P35" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q35" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R35" t="n">
-        <v>65.85829705115658</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S35" t="n">
-        <v>23.89104641001701</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T35" t="n">
-        <v>4.589492294453073</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H36" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I36" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J36" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K36" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L36" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
@@ -33749,25 +33751,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R36" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S36" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T36" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H37" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I37" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J37" t="n">
-        <v>33.24940237062825</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K37" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L37" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M37" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N37" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O37" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P37" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R37" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S37" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T37" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H38" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I38" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J38" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K38" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L38" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M38" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N38" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P38" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q38" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R38" t="n">
-        <v>65.85829705115658</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S38" t="n">
-        <v>23.89104641001701</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T38" t="n">
-        <v>4.589492294453073</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H39" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I39" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J39" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K39" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L39" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
@@ -33986,25 +33988,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q39" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R39" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S39" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T39" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H40" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I40" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J40" t="n">
-        <v>33.24940237062825</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K40" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L40" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M40" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N40" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O40" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P40" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R40" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S40" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T40" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H41" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J41" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K41" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L41" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M41" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N41" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P41" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q41" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R41" t="n">
-        <v>65.85829705115658</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S41" t="n">
-        <v>23.89104641001701</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T41" t="n">
-        <v>4.589492294453073</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H42" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I42" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J42" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K42" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L42" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
@@ -34223,25 +34225,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q42" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R42" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S42" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T42" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H43" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I43" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J43" t="n">
-        <v>33.24940237062825</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K43" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L43" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M43" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N43" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O43" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P43" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R43" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S43" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T43" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.048427708612923</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H44" t="n">
-        <v>10.7372102708321</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I44" t="n">
-        <v>40.41950923629976</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J44" t="n">
-        <v>88.98399123388616</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K44" t="n">
-        <v>133.3639361394712</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L44" t="n">
-        <v>165.449755626934</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M44" t="n">
-        <v>184.0947318899791</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N44" t="n">
-        <v>187.0735771170756</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>176.6482740895558</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P44" t="n">
-        <v>150.7652150331742</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q44" t="n">
-        <v>113.2183977184739</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R44" t="n">
-        <v>65.85829705115658</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S44" t="n">
-        <v>23.89104641001701</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T44" t="n">
-        <v>4.589492294453073</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U44" t="n">
-        <v>0.08387421668903383</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.560958278245113</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H45" t="n">
-        <v>5.417676003051487</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I45" t="n">
-        <v>19.31369510624622</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J45" t="n">
-        <v>52.99825557753501</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K45" t="n">
-        <v>90.58246021995758</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L45" t="n">
-        <v>121.799296335633</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
@@ -34460,25 +34462,25 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>133.4662443858011</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>107.1184277115602</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.60583214932356</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R45" t="n">
-        <v>34.82862011770975</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S45" t="n">
-        <v>10.4195539840704</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T45" t="n">
-        <v>2.261055516259907</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03690514988454693</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4702885766708382</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H46" t="n">
-        <v>4.181292981673455</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I46" t="n">
-        <v>14.14286010570121</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J46" t="n">
-        <v>33.24940237062825</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K46" t="n">
-        <v>54.63898190775737</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L46" t="n">
-        <v>69.91908529886263</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M46" t="n">
-        <v>73.71987206850237</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N46" t="n">
-        <v>71.96697828272931</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O46" t="n">
-        <v>66.47315263707449</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P46" t="n">
-        <v>56.87926567298935</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.38025527013718</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R46" t="n">
-        <v>21.14588454739968</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S46" t="n">
-        <v>8.195847286163604</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T46" t="n">
-        <v>2.009414827593581</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02565210418204575</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_9_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_9_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7848.722221705564</v>
+        <v>-131733.8430663086</v>
       </c>
     </row>
     <row r="7">
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L29" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M29" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K30" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O31" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L32" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M32" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K33" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O34" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K35" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L35" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K36" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L37" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M37" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N37" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O37" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K38" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L38" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M38" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P38" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K39" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L40" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M40" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N40" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O40" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L41" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K42" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K44" t="n">
         <v>56.54227989916996</v>
@@ -11305,13 +11305,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P44" t="n">
         <v>46.34579576917247</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K45" t="n">
         <v>26.75787480980772</v>
@@ -11469,10 +11469,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S29" t="n">
         <v>179.7218745449422</v>
@@ -24861,7 +24861,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J31" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R31" t="n">
         <v>151.3616578248528</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S32" t="n">
         <v>179.7218745449422</v>
@@ -25098,7 +25098,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J34" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R34" t="n">
         <v>151.3616578248528</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S35" t="n">
         <v>179.7218745449422</v>
@@ -25335,7 +25335,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J37" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R37" t="n">
         <v>151.3616578248528</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S38" t="n">
         <v>179.7218745449422</v>
@@ -25572,7 +25572,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J40" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R40" t="n">
         <v>151.3616578248528</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S41" t="n">
         <v>179.7218745449422</v>
@@ -25809,7 +25809,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J43" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R43" t="n">
         <v>151.3616578248528</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S44" t="n">
         <v>179.7218745449422</v>
@@ -26046,7 +26046,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J46" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53753.70276572321</v>
+        <v>53753.7027657232</v>
       </c>
       <c r="C2" t="n">
-        <v>53753.70276572321</v>
+        <v>53753.7027657232</v>
       </c>
       <c r="D2" t="n">
-        <v>53753.70276572321</v>
+        <v>53753.7027657232</v>
       </c>
       <c r="E2" t="n">
         <v>59776.84954095795</v>
@@ -26328,19 +26328,19 @@
         <v>59776.84954095795</v>
       </c>
       <c r="G2" t="n">
-        <v>59776.84954095795</v>
+        <v>59776.84954095796</v>
       </c>
       <c r="H2" t="n">
         <v>59776.84954095795</v>
       </c>
       <c r="I2" t="n">
+        <v>59776.84954095795</v>
+      </c>
+      <c r="J2" t="n">
         <v>59776.84954095796</v>
       </c>
-      <c r="J2" t="n">
-        <v>59776.84954095795</v>
-      </c>
       <c r="K2" t="n">
-        <v>59776.84954095795</v>
+        <v>59776.84954095796</v>
       </c>
       <c r="L2" t="n">
         <v>59776.84954095796</v>
@@ -26496,19 +26496,19 @@
         <v>6972.102563257328</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="L5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="M5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="N5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.102563257328</v>
+        <v>6972.10256325733</v>
       </c>
       <c r="P5" t="n">
         <v>6972.102563257328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28252.22972342766</v>
+        <v>-43402.90369346245</v>
       </c>
       <c r="C6" t="n">
-        <v>-28252.22972342767</v>
+        <v>-43402.90369346245</v>
       </c>
       <c r="D6" t="n">
-        <v>-28252.22972342766</v>
+        <v>-43402.90369346245</v>
       </c>
       <c r="E6" t="n">
-        <v>-215038.2879414062</v>
+        <v>-229586.6472339175</v>
       </c>
       <c r="F6" t="n">
-        <v>41907.03846357673</v>
+        <v>27358.67917106544</v>
       </c>
       <c r="G6" t="n">
-        <v>41907.03846357673</v>
+        <v>27358.67917106545</v>
       </c>
       <c r="H6" t="n">
-        <v>41907.03846357673</v>
+        <v>27358.67917106544</v>
       </c>
       <c r="I6" t="n">
-        <v>41907.03846357674</v>
+        <v>27358.67917106544</v>
       </c>
       <c r="J6" t="n">
-        <v>41907.03846357673</v>
+        <v>27358.67917106545</v>
       </c>
       <c r="K6" t="n">
-        <v>41907.03846357673</v>
+        <v>27358.67917106545</v>
       </c>
       <c r="L6" t="n">
-        <v>41907.03846357674</v>
+        <v>27358.67917106545</v>
       </c>
       <c r="M6" t="n">
-        <v>41907.03846357674</v>
+        <v>27358.67917106546</v>
       </c>
       <c r="N6" t="n">
-        <v>41907.03846357674</v>
+        <v>27358.67917106545</v>
       </c>
       <c r="O6" t="n">
-        <v>41907.03846357674</v>
+        <v>27358.67917106545</v>
       </c>
       <c r="P6" t="n">
-        <v>41907.03846357674</v>
+        <v>27358.67917106545</v>
       </c>
     </row>
   </sheetData>
@@ -33180,16 +33180,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J29" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K29" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M29" t="n">
         <v>225.7600302817866</v>
@@ -33207,13 +33207,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R29" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S29" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T29" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U29" t="n">
         <v>0.1028570752958528</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I30" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J30" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K30" t="n">
         <v>111.0835641645513</v>
@@ -33280,22 +33280,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S30" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T30" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,37 +33332,37 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H31" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I31" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J31" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O31" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P31" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R31" t="n">
         <v>25.93173355231669</v>
@@ -33417,16 +33417,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J32" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K32" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M32" t="n">
         <v>225.7600302817866</v>
@@ -33444,13 +33444,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R32" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S32" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T32" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U32" t="n">
         <v>0.1028570752958528</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I33" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J33" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K33" t="n">
         <v>111.0835641645513</v>
@@ -33517,22 +33517,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S33" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T33" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,37 +33569,37 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H34" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I34" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J34" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O34" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P34" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R34" t="n">
         <v>25.93173355231669</v>
@@ -33654,16 +33654,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J35" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K35" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L35" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M35" t="n">
         <v>225.7600302817866</v>
@@ -33681,13 +33681,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R35" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S35" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T35" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U35" t="n">
         <v>0.1028570752958528</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H36" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I36" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J36" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K36" t="n">
         <v>111.0835641645513</v>
@@ -33754,22 +33754,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R36" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S36" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T36" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,37 +33806,37 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I37" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J37" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K37" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L37" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M37" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N37" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O37" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P37" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R37" t="n">
         <v>25.93173355231669</v>
@@ -33891,16 +33891,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J38" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K38" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L38" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M38" t="n">
         <v>225.7600302817866</v>
@@ -33918,13 +33918,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R38" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S38" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T38" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U38" t="n">
         <v>0.1028570752958528</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H39" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I39" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J39" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K39" t="n">
         <v>111.0835641645513</v>
@@ -33991,22 +33991,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R39" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S39" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T39" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,37 +34043,37 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H40" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I40" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J40" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K40" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L40" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M40" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N40" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O40" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P40" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R40" t="n">
         <v>25.93173355231669</v>
@@ -34128,16 +34128,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K41" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M41" t="n">
         <v>225.7600302817866</v>
@@ -34155,13 +34155,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R41" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S41" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T41" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U41" t="n">
         <v>0.1028570752958528</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I42" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K42" t="n">
         <v>111.0835641645513</v>
@@ -34228,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S42" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T42" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,37 +34280,37 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I43" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J43" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R43" t="n">
         <v>25.93173355231669</v>
@@ -34368,7 +34368,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K44" t="n">
         <v>163.5475711458106</v>
@@ -34392,13 +34392,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R44" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S44" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T44" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U44" t="n">
         <v>0.1028570752958528</v>
@@ -34447,7 +34447,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K45" t="n">
         <v>111.0835641645513</v>
@@ -34477,7 +34477,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U45" t="n">
         <v>0.04525771959877963</v>
@@ -34520,13 +34520,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I46" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J46" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K46" t="n">
         <v>67.00516676073742</v>
@@ -34541,10 +34541,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q46" t="n">
         <v>48.29300399320443</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_9_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_9_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-131733.8430663086</v>
+        <v>-20701.53659533121</v>
       </c>
     </row>
     <row r="7">
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L29" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M29" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K30" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10272,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O31" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L32" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M32" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K33" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10509,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O34" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K35" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L35" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K36" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L37" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M37" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N37" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O37" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K38" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L38" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M38" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P38" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K39" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10983,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L40" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M40" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N40" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O40" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L41" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K42" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11220,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K44" t="n">
         <v>56.54227989916996</v>
@@ -11305,13 +11305,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P44" t="n">
         <v>46.34579576917247</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K45" t="n">
         <v>26.75787480980772</v>
@@ -11469,10 +11469,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S29" t="n">
         <v>179.7218745449422</v>
@@ -24861,7 +24861,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J31" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R31" t="n">
         <v>151.3616578248528</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S32" t="n">
         <v>179.7218745449422</v>
@@ -25098,7 +25098,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J34" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R34" t="n">
         <v>151.3616578248528</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S35" t="n">
         <v>179.7218745449422</v>
@@ -25335,7 +25335,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J37" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R37" t="n">
         <v>151.3616578248528</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S38" t="n">
         <v>179.7218745449422</v>
@@ -25572,7 +25572,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J40" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R40" t="n">
         <v>151.3616578248528</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S41" t="n">
         <v>179.7218745449422</v>
@@ -25809,7 +25809,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J43" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R43" t="n">
         <v>151.3616578248528</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S44" t="n">
         <v>179.7218745449422</v>
@@ -26046,7 +26046,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J46" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26316,7 +26316,7 @@
         <v>53753.7027657232</v>
       </c>
       <c r="C2" t="n">
-        <v>53753.7027657232</v>
+        <v>53753.70276572321</v>
       </c>
       <c r="D2" t="n">
         <v>53753.7027657232</v>
@@ -26328,19 +26328,19 @@
         <v>59776.84954095795</v>
       </c>
       <c r="G2" t="n">
+        <v>59776.84954095795</v>
+      </c>
+      <c r="H2" t="n">
         <v>59776.84954095796</v>
-      </c>
-      <c r="H2" t="n">
-        <v>59776.84954095795</v>
       </c>
       <c r="I2" t="n">
         <v>59776.84954095795</v>
       </c>
       <c r="J2" t="n">
-        <v>59776.84954095796</v>
+        <v>59776.84954095795</v>
       </c>
       <c r="K2" t="n">
-        <v>59776.84954095796</v>
+        <v>59776.84954095795</v>
       </c>
       <c r="L2" t="n">
         <v>59776.84954095796</v>
@@ -26349,10 +26349,10 @@
         <v>59776.84954095796</v>
       </c>
       <c r="N2" t="n">
-        <v>59776.84954095796</v>
+        <v>59776.84954095795</v>
       </c>
       <c r="O2" t="n">
-        <v>59776.84954095796</v>
+        <v>59776.84954095795</v>
       </c>
       <c r="P2" t="n">
         <v>59776.84954095796</v>
@@ -26496,19 +26496,19 @@
         <v>6972.102563257328</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="L5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="M5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="N5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="P5" t="n">
         <v>6972.102563257328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-43402.90369346245</v>
+        <v>-29767.29712043115</v>
       </c>
       <c r="C6" t="n">
-        <v>-43402.90369346245</v>
+        <v>-29767.29712043115</v>
       </c>
       <c r="D6" t="n">
-        <v>-43402.90369346245</v>
+        <v>-29767.29712043115</v>
       </c>
       <c r="E6" t="n">
-        <v>-229586.6472339175</v>
+        <v>-216493.1238706573</v>
       </c>
       <c r="F6" t="n">
-        <v>27358.67917106544</v>
+        <v>40452.2025343256</v>
       </c>
       <c r="G6" t="n">
-        <v>27358.67917106545</v>
+        <v>40452.2025343256</v>
       </c>
       <c r="H6" t="n">
-        <v>27358.67917106544</v>
+        <v>40452.20253432561</v>
       </c>
       <c r="I6" t="n">
-        <v>27358.67917106544</v>
+        <v>40452.2025343256</v>
       </c>
       <c r="J6" t="n">
-        <v>27358.67917106545</v>
+        <v>40452.2025343256</v>
       </c>
       <c r="K6" t="n">
-        <v>27358.67917106545</v>
+        <v>40452.2025343256</v>
       </c>
       <c r="L6" t="n">
-        <v>27358.67917106545</v>
+        <v>40452.20253432561</v>
       </c>
       <c r="M6" t="n">
-        <v>27358.67917106546</v>
+        <v>40452.20253432561</v>
       </c>
       <c r="N6" t="n">
-        <v>27358.67917106545</v>
+        <v>40452.2025343256</v>
       </c>
       <c r="O6" t="n">
-        <v>27358.67917106545</v>
+        <v>40452.2025343256</v>
       </c>
       <c r="P6" t="n">
-        <v>27358.67917106545</v>
+        <v>40452.20253432561</v>
       </c>
     </row>
   </sheetData>
@@ -33180,16 +33180,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J29" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K29" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M29" t="n">
         <v>225.7600302817866</v>
@@ -33207,13 +33207,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R29" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S29" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T29" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U29" t="n">
         <v>0.1028570752958528</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I30" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J30" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K30" t="n">
         <v>111.0835641645513</v>
@@ -33280,22 +33280,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S30" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T30" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,37 +33332,37 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H31" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I31" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J31" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O31" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P31" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R31" t="n">
         <v>25.93173355231669</v>
@@ -33417,16 +33417,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J32" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K32" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M32" t="n">
         <v>225.7600302817866</v>
@@ -33444,13 +33444,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R32" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S32" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T32" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U32" t="n">
         <v>0.1028570752958528</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I33" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J33" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K33" t="n">
         <v>111.0835641645513</v>
@@ -33517,22 +33517,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S33" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T33" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,37 +33569,37 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H34" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I34" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J34" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O34" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P34" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R34" t="n">
         <v>25.93173355231669</v>
@@ -33654,16 +33654,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J35" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K35" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L35" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M35" t="n">
         <v>225.7600302817866</v>
@@ -33681,13 +33681,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R35" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S35" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T35" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U35" t="n">
         <v>0.1028570752958528</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H36" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I36" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J36" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K36" t="n">
         <v>111.0835641645513</v>
@@ -33754,22 +33754,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R36" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S36" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T36" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,37 +33806,37 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I37" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J37" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K37" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L37" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M37" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N37" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O37" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P37" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R37" t="n">
         <v>25.93173355231669</v>
@@ -33891,16 +33891,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J38" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K38" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L38" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M38" t="n">
         <v>225.7600302817866</v>
@@ -33918,13 +33918,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R38" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S38" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T38" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U38" t="n">
         <v>0.1028570752958528</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H39" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I39" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J39" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K39" t="n">
         <v>111.0835641645513</v>
@@ -33991,22 +33991,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R39" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S39" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T39" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,37 +34043,37 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H40" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I40" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J40" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K40" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L40" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M40" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N40" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O40" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P40" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R40" t="n">
         <v>25.93173355231669</v>
@@ -34128,16 +34128,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K41" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M41" t="n">
         <v>225.7600302817866</v>
@@ -34155,13 +34155,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R41" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S41" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T41" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U41" t="n">
         <v>0.1028570752958528</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I42" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K42" t="n">
         <v>111.0835641645513</v>
@@ -34228,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S42" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T42" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,37 +34280,37 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I43" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J43" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R43" t="n">
         <v>25.93173355231669</v>
@@ -34368,7 +34368,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K44" t="n">
         <v>163.5475711458106</v>
@@ -34392,13 +34392,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R44" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S44" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T44" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U44" t="n">
         <v>0.1028570752958528</v>
@@ -34447,7 +34447,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K45" t="n">
         <v>111.0835641645513</v>
@@ -34477,7 +34477,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U45" t="n">
         <v>0.04525771959877963</v>
@@ -34520,13 +34520,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I46" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J46" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K46" t="n">
         <v>67.00516676073742</v>
@@ -34541,10 +34541,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q46" t="n">
         <v>48.29300399320443</v>
